--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91FBBA2-87C1-E44E-A6DF-9A8F10F6F935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0AC0F9-5CCF-1248-9180-95EB3898B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="910">
   <si>
     <t>record_id</t>
   </si>
@@ -1327,9 +1327,6 @@
   </si>
   <si>
     <t>https://www.proquest.com/openview/b794ec34b0cee0379d06fef5f09f87ba/1?pq-origsite=gscholar&amp;cbl=44156</t>
-  </si>
-  <si>
-    <t>Chapter 2 of the thesis is already_coded: for Li_2022_financial study_set_13</t>
   </si>
   <si>
     <t>FLDGHT3H</t>
@@ -3004,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AI99" sqref="AI99"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AF47" sqref="AF47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3114,7 +3111,7 @@
         <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -6378,12 +6375,6 @@
       <c r="Z45" t="s">
         <v>46</v>
       </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>434</v>
-      </c>
       <c r="AG45">
         <v>1</v>
       </c>
@@ -6393,13 +6384,13 @@
         <v>994</v>
       </c>
       <c r="B46" t="s">
+        <v>434</v>
+      </c>
+      <c r="C46" t="s">
         <v>435</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>436</v>
-      </c>
-      <c r="D46" t="s">
-        <v>437</v>
       </c>
       <c r="E46">
         <v>2017</v>
@@ -6408,28 +6399,28 @@
         <v>113</v>
       </c>
       <c r="J46" t="s">
+        <v>437</v>
+      </c>
+      <c r="L46" t="s">
         <v>438</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>439</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
         <v>440</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46" t="s">
-        <v>441</v>
       </c>
       <c r="S46" s="2">
         <v>45224</v>
@@ -6461,13 +6452,13 @@
         <v>10395</v>
       </c>
       <c r="B47" t="s">
+        <v>441</v>
+      </c>
+      <c r="C47" t="s">
         <v>442</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>443</v>
-      </c>
-      <c r="D47" t="s">
-        <v>444</v>
       </c>
       <c r="E47">
         <v>2018</v>
@@ -6476,40 +6467,40 @@
         <v>61</v>
       </c>
       <c r="G47" t="s">
+        <v>444</v>
+      </c>
+      <c r="H47" t="s">
         <v>445</v>
-      </c>
-      <c r="H47" t="s">
-        <v>446</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
       </c>
       <c r="J47" t="s">
+        <v>446</v>
+      </c>
+      <c r="K47" t="s">
         <v>447</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>448</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>449</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
         <v>450</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47" t="s">
-        <v>451</v>
       </c>
       <c r="S47" s="2">
         <v>45224</v>
@@ -6538,52 +6529,52 @@
         <v>313</v>
       </c>
       <c r="B48" t="s">
+        <v>451</v>
+      </c>
+      <c r="C48" t="s">
         <v>452</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>453</v>
-      </c>
-      <c r="D48" t="s">
-        <v>454</v>
       </c>
       <c r="E48">
         <v>2005</v>
       </c>
       <c r="F48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
       </c>
       <c r="J48" t="s">
+        <v>456</v>
+      </c>
+      <c r="L48" t="s">
         <v>457</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>458</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
         <v>459</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48" t="s">
-        <v>460</v>
       </c>
       <c r="S48" s="2">
         <v>45224</v>
@@ -6595,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="V48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -6615,55 +6606,55 @@
         <v>2390</v>
       </c>
       <c r="B49" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" t="s">
         <v>462</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>463</v>
-      </c>
-      <c r="D49" t="s">
-        <v>464</v>
       </c>
       <c r="E49">
         <v>2012</v>
       </c>
       <c r="F49" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G49">
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I49" t="s">
         <v>39</v>
       </c>
       <c r="J49" t="s">
+        <v>466</v>
+      </c>
+      <c r="K49" t="s">
         <v>467</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>468</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>469</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
         <v>470</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>471</v>
       </c>
       <c r="S49" s="2">
         <v>45224</v>
@@ -6695,55 +6686,55 @@
         <v>9825</v>
       </c>
       <c r="B50" t="s">
+        <v>471</v>
+      </c>
+      <c r="C50" t="s">
         <v>472</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>473</v>
-      </c>
-      <c r="D50" t="s">
-        <v>474</v>
       </c>
       <c r="E50">
         <v>2009</v>
       </c>
       <c r="F50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G50" t="s">
         <v>123</v>
       </c>
       <c r="H50" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I50" t="s">
         <v>39</v>
       </c>
       <c r="J50" t="s">
+        <v>476</v>
+      </c>
+      <c r="K50" t="s">
         <v>477</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>478</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>479</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
         <v>480</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>481</v>
       </c>
       <c r="S50" s="2">
         <v>45224</v>
@@ -6761,7 +6752,7 @@
         <v>46</v>
       </c>
       <c r="Z50" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AG50">
         <v>1</v>
@@ -6775,19 +6766,19 @@
         <v>1963</v>
       </c>
       <c r="B51" t="s">
+        <v>481</v>
+      </c>
+      <c r="C51" t="s">
         <v>482</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>483</v>
-      </c>
-      <c r="D51" t="s">
-        <v>484</v>
       </c>
       <c r="E51">
         <v>2015</v>
       </c>
       <c r="F51" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G51" t="s">
         <v>37</v>
@@ -6799,28 +6790,28 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
+        <v>485</v>
+      </c>
+      <c r="L51" t="s">
         <v>486</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>487</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51" t="s">
         <v>488</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51" t="s">
-        <v>489</v>
       </c>
       <c r="S51" s="2">
         <v>45224</v>
@@ -6849,52 +6840,52 @@
         <v>2293</v>
       </c>
       <c r="B52" t="s">
+        <v>489</v>
+      </c>
+      <c r="C52" t="s">
         <v>490</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>491</v>
-      </c>
-      <c r="D52" t="s">
-        <v>492</v>
       </c>
       <c r="E52">
         <v>2012</v>
       </c>
       <c r="F52" t="s">
+        <v>492</v>
+      </c>
+      <c r="G52" t="s">
         <v>493</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>494</v>
-      </c>
-      <c r="H52" t="s">
-        <v>495</v>
       </c>
       <c r="I52" t="s">
         <v>39</v>
       </c>
       <c r="J52" t="s">
+        <v>495</v>
+      </c>
+      <c r="L52" t="s">
         <v>496</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>497</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
         <v>498</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>499</v>
       </c>
       <c r="S52" s="2">
         <v>45224</v>
@@ -6923,52 +6914,52 @@
         <v>1553</v>
       </c>
       <c r="B53" t="s">
+        <v>499</v>
+      </c>
+      <c r="C53" t="s">
         <v>500</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>501</v>
-      </c>
-      <c r="D53" t="s">
-        <v>502</v>
       </c>
       <c r="E53">
         <v>2020</v>
       </c>
       <c r="F53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G53" t="s">
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I53" t="s">
         <v>39</v>
       </c>
       <c r="J53" t="s">
+        <v>504</v>
+      </c>
+      <c r="L53" t="s">
         <v>505</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>506</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53" t="s">
         <v>507</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53" t="s">
-        <v>508</v>
       </c>
       <c r="S53" s="2">
         <v>45224</v>
@@ -6997,13 +6988,13 @@
         <v>1168</v>
       </c>
       <c r="B54" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" t="s">
         <v>509</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>510</v>
-      </c>
-      <c r="D54" t="s">
-        <v>511</v>
       </c>
       <c r="E54">
         <v>2003</v>
@@ -7012,28 +7003,28 @@
         <v>113</v>
       </c>
       <c r="J54" t="s">
+        <v>511</v>
+      </c>
+      <c r="L54" t="s">
         <v>512</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>513</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
         <v>514</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>515</v>
       </c>
       <c r="S54" s="2">
         <v>45224</v>
@@ -7051,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y54" t="s">
         <v>46</v>
@@ -7068,13 +7059,13 @@
         <v>10312</v>
       </c>
       <c r="B55" t="s">
+        <v>516</v>
+      </c>
+      <c r="C55" t="s">
         <v>517</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>518</v>
-      </c>
-      <c r="D55" t="s">
-        <v>519</v>
       </c>
       <c r="E55">
         <v>2019</v>
@@ -7083,25 +7074,25 @@
         <v>113</v>
       </c>
       <c r="J55" t="s">
+        <v>519</v>
+      </c>
+      <c r="M55" t="s">
         <v>520</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
         <v>521</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55" t="s">
-        <v>522</v>
       </c>
       <c r="S55" s="2">
         <v>45224</v>
@@ -7136,19 +7127,19 @@
         <v>8018</v>
       </c>
       <c r="B56" t="s">
+        <v>522</v>
+      </c>
+      <c r="C56" t="s">
         <v>523</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>524</v>
-      </c>
-      <c r="D56" t="s">
-        <v>525</v>
       </c>
       <c r="E56">
         <v>2021</v>
       </c>
       <c r="F56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -7160,17 +7151,17 @@
         <v>39</v>
       </c>
       <c r="J56" t="s">
+        <v>526</v>
+      </c>
+      <c r="K56" t="s">
         <v>527</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>528</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>529</v>
       </c>
-      <c r="M56" t="s">
-        <v>530</v>
-      </c>
       <c r="N56">
         <v>1</v>
       </c>
@@ -7184,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S56" s="2">
         <v>45224</v>
@@ -7213,52 +7204,52 @@
         <v>1314</v>
       </c>
       <c r="B57" t="s">
+        <v>530</v>
+      </c>
+      <c r="C57" t="s">
         <v>531</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>532</v>
-      </c>
-      <c r="D57" t="s">
-        <v>533</v>
       </c>
       <c r="E57">
         <v>2022</v>
       </c>
       <c r="F57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G57" t="s">
         <v>173</v>
       </c>
       <c r="H57" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
       </c>
       <c r="J57" t="s">
+        <v>534</v>
+      </c>
+      <c r="L57" t="s">
         <v>535</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>536</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
         <v>537</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>538</v>
       </c>
       <c r="S57" s="2">
         <v>45224</v>
@@ -7273,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Y57" t="s">
         <v>46</v>
@@ -7287,19 +7278,19 @@
         <v>4719</v>
       </c>
       <c r="B58" t="s">
+        <v>539</v>
+      </c>
+      <c r="C58" t="s">
         <v>540</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>541</v>
-      </c>
-      <c r="D58" t="s">
-        <v>542</v>
       </c>
       <c r="E58">
         <v>2017</v>
       </c>
       <c r="F58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H58">
         <v>151</v>
@@ -7308,28 +7299,28 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
+        <v>543</v>
+      </c>
+      <c r="L58" t="s">
         <v>544</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>545</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
         <v>546</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58" t="s">
-        <v>547</v>
       </c>
       <c r="S58" s="2">
         <v>45224</v>
@@ -7364,19 +7355,19 @@
         <v>7720</v>
       </c>
       <c r="B59" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" t="s">
         <v>548</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>549</v>
-      </c>
-      <c r="D59" t="s">
-        <v>550</v>
       </c>
       <c r="E59">
         <v>2023</v>
       </c>
       <c r="F59" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G59">
         <v>8</v>
@@ -7388,28 +7379,28 @@
         <v>39</v>
       </c>
       <c r="J59" t="s">
+        <v>551</v>
+      </c>
+      <c r="L59" t="s">
         <v>552</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>553</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59" t="s">
         <v>554</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59" t="s">
-        <v>555</v>
       </c>
       <c r="S59" s="2">
         <v>45229</v>
@@ -7444,49 +7435,49 @@
         <v>943</v>
       </c>
       <c r="B60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C60" t="s">
         <v>556</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>557</v>
-      </c>
-      <c r="D60" t="s">
-        <v>558</v>
       </c>
       <c r="E60">
         <v>2018</v>
       </c>
       <c r="F60" t="s">
+        <v>558</v>
+      </c>
+      <c r="H60" t="s">
         <v>559</v>
-      </c>
-      <c r="H60" t="s">
-        <v>560</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
       </c>
       <c r="J60" t="s">
+        <v>560</v>
+      </c>
+      <c r="L60" t="s">
         <v>561</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>562</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
         <v>563</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60" t="s">
-        <v>564</v>
       </c>
       <c r="S60" s="2">
         <v>45224</v>
@@ -7518,13 +7509,13 @@
         <v>6017</v>
       </c>
       <c r="B61" t="s">
+        <v>564</v>
+      </c>
+      <c r="C61" t="s">
         <v>565</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>566</v>
-      </c>
-      <c r="D61" t="s">
-        <v>567</v>
       </c>
       <c r="E61">
         <v>2002</v>
@@ -7533,28 +7524,28 @@
         <v>113</v>
       </c>
       <c r="J61" t="s">
+        <v>567</v>
+      </c>
+      <c r="L61" t="s">
         <v>568</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>569</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
         <v>570</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
-        <v>571</v>
       </c>
       <c r="S61" s="2">
         <v>45229</v>
@@ -7589,38 +7580,38 @@
         <v>10292</v>
       </c>
       <c r="B62" t="s">
+        <v>571</v>
+      </c>
+      <c r="C62" t="s">
         <v>572</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>573</v>
-      </c>
-      <c r="D62" t="s">
-        <v>574</v>
       </c>
       <c r="E62">
         <v>2013</v>
       </c>
       <c r="F62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I62" t="s">
         <v>39</v>
       </c>
       <c r="J62" t="s">
+        <v>576</v>
+      </c>
+      <c r="L62" t="s">
         <v>577</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>578</v>
       </c>
-      <c r="M62" t="s">
-        <v>579</v>
-      </c>
       <c r="N62">
         <v>1</v>
       </c>
@@ -7634,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="R62" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="S62" s="2">
         <v>45224</v>
@@ -7663,13 +7654,13 @@
         <v>10344</v>
       </c>
       <c r="B63" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" t="s">
         <v>580</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>581</v>
-      </c>
-      <c r="D63" t="s">
-        <v>582</v>
       </c>
       <c r="E63">
         <v>2013</v>
@@ -7678,25 +7669,25 @@
         <v>113</v>
       </c>
       <c r="J63" t="s">
+        <v>582</v>
+      </c>
+      <c r="M63" t="s">
         <v>583</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
         <v>584</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>585</v>
       </c>
       <c r="S63" s="2">
         <v>45224</v>
@@ -7728,52 +7719,52 @@
         <v>8656</v>
       </c>
       <c r="B64" t="s">
+        <v>585</v>
+      </c>
+      <c r="C64" t="s">
         <v>586</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>587</v>
-      </c>
-      <c r="D64" t="s">
-        <v>588</v>
       </c>
       <c r="E64">
         <v>2014</v>
       </c>
       <c r="F64" t="s">
+        <v>588</v>
+      </c>
+      <c r="H64" t="s">
         <v>589</v>
-      </c>
-      <c r="H64" t="s">
-        <v>590</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
       </c>
       <c r="J64" t="s">
+        <v>590</v>
+      </c>
+      <c r="K64" t="s">
         <v>591</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>592</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>593</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64" t="s">
         <v>594</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64" t="s">
-        <v>595</v>
       </c>
       <c r="S64" s="2">
         <v>45224</v>
@@ -7802,13 +7793,13 @@
         <v>623</v>
       </c>
       <c r="B65" t="s">
+        <v>595</v>
+      </c>
+      <c r="C65" t="s">
         <v>596</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>597</v>
-      </c>
-      <c r="D65" t="s">
-        <v>598</v>
       </c>
       <c r="E65">
         <v>2018</v>
@@ -7817,37 +7808,37 @@
         <v>199</v>
       </c>
       <c r="H65" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I65" t="s">
         <v>39</v>
       </c>
       <c r="J65" t="s">
+        <v>599</v>
+      </c>
+      <c r="K65" t="s">
         <v>600</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>601</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>602</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65" t="s">
         <v>603</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65" t="s">
-        <v>604</v>
       </c>
       <c r="S65" s="2">
         <v>45224</v>
@@ -7876,13 +7867,13 @@
         <v>7491</v>
       </c>
       <c r="B66" t="s">
+        <v>604</v>
+      </c>
+      <c r="C66" t="s">
         <v>605</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>606</v>
-      </c>
-      <c r="D66" t="s">
-        <v>607</v>
       </c>
       <c r="E66">
         <v>2022</v>
@@ -7891,40 +7882,40 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H66" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
       </c>
       <c r="J66" t="s">
+        <v>607</v>
+      </c>
+      <c r="K66" t="s">
         <v>608</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>609</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>610</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
         <v>611</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>612</v>
       </c>
       <c r="S66" s="2">
         <v>45224</v>
@@ -7953,19 +7944,19 @@
         <v>8886</v>
       </c>
       <c r="B67" t="s">
+        <v>612</v>
+      </c>
+      <c r="C67" t="s">
         <v>613</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>614</v>
-      </c>
-      <c r="D67" t="s">
-        <v>615</v>
       </c>
       <c r="E67">
         <v>2001</v>
       </c>
       <c r="F67" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G67" t="s">
         <v>123</v>
@@ -7977,31 +7968,31 @@
         <v>39</v>
       </c>
       <c r="J67" t="s">
+        <v>616</v>
+      </c>
+      <c r="K67" t="s">
         <v>617</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>618</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>619</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
         <v>620</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>621</v>
       </c>
       <c r="S67" s="2">
         <v>45224</v>
@@ -8030,38 +8021,38 @@
         <v>10133</v>
       </c>
       <c r="B68" t="s">
+        <v>621</v>
+      </c>
+      <c r="C68" t="s">
         <v>622</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>623</v>
-      </c>
-      <c r="D68" t="s">
-        <v>624</v>
       </c>
       <c r="E68">
         <v>2017</v>
       </c>
       <c r="F68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G68" t="s">
         <v>134</v>
       </c>
       <c r="H68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I68" t="s">
         <v>39</v>
       </c>
       <c r="J68" t="s">
+        <v>625</v>
+      </c>
+      <c r="L68" t="s">
         <v>626</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>627</v>
       </c>
-      <c r="M68" t="s">
-        <v>628</v>
-      </c>
       <c r="N68">
         <v>1</v>
       </c>
@@ -8075,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="R68" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="S68" s="2">
         <v>45224</v>
@@ -8104,13 +8095,13 @@
         <v>915</v>
       </c>
       <c r="B69" t="s">
+        <v>628</v>
+      </c>
+      <c r="C69" t="s">
         <v>629</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>630</v>
-      </c>
-      <c r="D69" t="s">
-        <v>631</v>
       </c>
       <c r="E69">
         <v>2014</v>
@@ -8119,28 +8110,28 @@
         <v>113</v>
       </c>
       <c r="J69" t="s">
+        <v>631</v>
+      </c>
+      <c r="L69" t="s">
         <v>632</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>633</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
         <v>634</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69" t="s">
-        <v>635</v>
       </c>
       <c r="S69" s="2">
         <v>45229</v>
@@ -8172,55 +8163,55 @@
         <v>10466</v>
       </c>
       <c r="B70" t="s">
+        <v>635</v>
+      </c>
+      <c r="C70" t="s">
         <v>636</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>637</v>
-      </c>
-      <c r="D70" t="s">
-        <v>638</v>
       </c>
       <c r="E70">
         <v>2000</v>
       </c>
       <c r="F70" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G70" t="s">
         <v>173</v>
       </c>
       <c r="H70" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I70" t="s">
         <v>39</v>
       </c>
       <c r="J70" t="s">
+        <v>639</v>
+      </c>
+      <c r="K70" t="s">
         <v>640</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>641</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>642</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
         <v>643</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70" t="s">
-        <v>644</v>
       </c>
       <c r="S70" s="2">
         <v>45224</v>
@@ -8249,19 +8240,19 @@
         <v>6883</v>
       </c>
       <c r="B71" t="s">
+        <v>644</v>
+      </c>
+      <c r="C71" t="s">
         <v>645</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>646</v>
-      </c>
-      <c r="D71" t="s">
-        <v>647</v>
       </c>
       <c r="E71">
         <v>2019</v>
       </c>
       <c r="F71" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -8273,31 +8264,31 @@
         <v>39</v>
       </c>
       <c r="J71" t="s">
+        <v>647</v>
+      </c>
+      <c r="K71" t="s">
         <v>648</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>649</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>650</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
         <v>651</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>652</v>
       </c>
       <c r="S71" s="2">
         <v>45229</v>
@@ -8329,55 +8320,55 @@
         <v>142</v>
       </c>
       <c r="B72" t="s">
+        <v>652</v>
+      </c>
+      <c r="C72" t="s">
         <v>653</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>654</v>
-      </c>
-      <c r="D72" t="s">
-        <v>655</v>
       </c>
       <c r="E72">
         <v>2009</v>
       </c>
       <c r="F72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G72">
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I72" t="s">
         <v>39</v>
       </c>
       <c r="J72" t="s">
+        <v>656</v>
+      </c>
+      <c r="K72" t="s">
         <v>657</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>658</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>659</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
         <v>660</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72" t="s">
-        <v>661</v>
       </c>
       <c r="S72" s="2">
         <v>45224</v>
@@ -8409,13 +8400,13 @@
         <v>8264</v>
       </c>
       <c r="B73" t="s">
+        <v>661</v>
+      </c>
+      <c r="C73" t="s">
         <v>662</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>663</v>
-      </c>
-      <c r="D73" t="s">
-        <v>664</v>
       </c>
       <c r="E73">
         <v>2010</v>
@@ -8427,37 +8418,37 @@
         <v>71</v>
       </c>
       <c r="H73" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I73" t="s">
         <v>39</v>
       </c>
       <c r="J73" t="s">
+        <v>665</v>
+      </c>
+      <c r="K73" t="s">
         <v>666</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>667</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>668</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
         <v>669</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73" t="s">
-        <v>670</v>
       </c>
       <c r="S73" s="2">
         <v>45224</v>
@@ -8486,19 +8477,19 @@
         <v>9302</v>
       </c>
       <c r="B74" t="s">
+        <v>670</v>
+      </c>
+      <c r="C74" t="s">
         <v>671</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>672</v>
-      </c>
-      <c r="D74" t="s">
-        <v>673</v>
       </c>
       <c r="E74">
         <v>2005</v>
       </c>
       <c r="F74" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -8510,17 +8501,17 @@
         <v>39</v>
       </c>
       <c r="J74" t="s">
+        <v>674</v>
+      </c>
+      <c r="K74" t="s">
         <v>675</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>676</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>677</v>
       </c>
-      <c r="M74" t="s">
-        <v>678</v>
-      </c>
       <c r="N74">
         <v>1</v>
       </c>
@@ -8534,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S74" s="2">
         <v>45224</v>
@@ -8563,19 +8554,19 @@
         <v>4121</v>
       </c>
       <c r="B75" t="s">
+        <v>678</v>
+      </c>
+      <c r="C75" t="s">
         <v>679</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>680</v>
-      </c>
-      <c r="D75" t="s">
-        <v>681</v>
       </c>
       <c r="E75">
         <v>2005</v>
       </c>
       <c r="F75" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -8587,28 +8578,28 @@
         <v>39</v>
       </c>
       <c r="J75" t="s">
+        <v>682</v>
+      </c>
+      <c r="L75" t="s">
         <v>683</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>684</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
         <v>685</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>686</v>
       </c>
       <c r="S75" s="2">
         <v>45224</v>
@@ -8637,55 +8628,55 @@
         <v>7618</v>
       </c>
       <c r="B76" t="s">
+        <v>686</v>
+      </c>
+      <c r="C76" t="s">
         <v>687</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>688</v>
-      </c>
-      <c r="D76" t="s">
-        <v>689</v>
       </c>
       <c r="E76">
         <v>1988</v>
       </c>
       <c r="F76" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G76" t="s">
         <v>173</v>
       </c>
       <c r="H76" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I76" t="s">
         <v>39</v>
       </c>
       <c r="J76" t="s">
+        <v>690</v>
+      </c>
+      <c r="K76" t="s">
         <v>691</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>692</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>693</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
         <v>694</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76" t="s">
-        <v>695</v>
       </c>
       <c r="S76" s="2">
         <v>45224</v>
@@ -8714,49 +8705,49 @@
         <v>1423</v>
       </c>
       <c r="B77" t="s">
+        <v>695</v>
+      </c>
+      <c r="C77" t="s">
         <v>696</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>697</v>
-      </c>
-      <c r="D77" t="s">
-        <v>698</v>
       </c>
       <c r="E77">
         <v>2019</v>
       </c>
       <c r="F77" t="s">
+        <v>698</v>
+      </c>
+      <c r="H77" t="s">
         <v>699</v>
-      </c>
-      <c r="H77" t="s">
-        <v>700</v>
       </c>
       <c r="I77" t="s">
         <v>39</v>
       </c>
       <c r="J77" t="s">
+        <v>700</v>
+      </c>
+      <c r="L77" t="s">
         <v>701</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>702</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
         <v>703</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>704</v>
       </c>
       <c r="S77" s="2">
         <v>45224</v>
@@ -8785,52 +8776,52 @@
         <v>587</v>
       </c>
       <c r="B78" t="s">
+        <v>704</v>
+      </c>
+      <c r="C78" t="s">
         <v>705</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>706</v>
-      </c>
-      <c r="D78" t="s">
-        <v>707</v>
       </c>
       <c r="E78">
         <v>2016</v>
       </c>
       <c r="F78" t="s">
+        <v>707</v>
+      </c>
+      <c r="G78" t="s">
         <v>708</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>709</v>
-      </c>
-      <c r="H78" t="s">
-        <v>710</v>
       </c>
       <c r="I78" t="s">
         <v>39</v>
       </c>
       <c r="J78" t="s">
+        <v>710</v>
+      </c>
+      <c r="L78" t="s">
         <v>711</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>712</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
         <v>713</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>714</v>
       </c>
       <c r="S78" s="2">
         <v>45224</v>
@@ -8859,52 +8850,52 @@
         <v>9319</v>
       </c>
       <c r="B79" t="s">
+        <v>714</v>
+      </c>
+      <c r="C79" t="s">
         <v>715</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>716</v>
-      </c>
-      <c r="D79" t="s">
-        <v>717</v>
       </c>
       <c r="E79">
         <v>2020</v>
       </c>
       <c r="F79" t="s">
+        <v>717</v>
+      </c>
+      <c r="H79" t="s">
         <v>718</v>
-      </c>
-      <c r="H79" t="s">
-        <v>719</v>
       </c>
       <c r="I79" t="s">
         <v>39</v>
       </c>
       <c r="J79" t="s">
+        <v>719</v>
+      </c>
+      <c r="K79" t="s">
         <v>720</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>721</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>722</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
         <v>723</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79" t="s">
-        <v>724</v>
       </c>
       <c r="S79" s="2">
         <v>45224</v>
@@ -8933,52 +8924,52 @@
         <v>2933</v>
       </c>
       <c r="B80" t="s">
+        <v>724</v>
+      </c>
+      <c r="C80" t="s">
         <v>725</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>726</v>
-      </c>
-      <c r="D80" t="s">
-        <v>727</v>
       </c>
       <c r="E80">
         <v>2012</v>
       </c>
       <c r="F80" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H80" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I80" t="s">
         <v>39</v>
       </c>
       <c r="J80" t="s">
+        <v>728</v>
+      </c>
+      <c r="K80" t="s">
         <v>729</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>730</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>731</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
         <v>732</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80" t="s">
-        <v>733</v>
       </c>
       <c r="S80" s="2">
         <v>45224</v>
@@ -9007,55 +8998,55 @@
         <v>6990</v>
       </c>
       <c r="B81" t="s">
+        <v>733</v>
+      </c>
+      <c r="C81" t="s">
         <v>734</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>735</v>
-      </c>
-      <c r="D81" t="s">
-        <v>736</v>
       </c>
       <c r="E81">
         <v>2013</v>
       </c>
       <c r="F81" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G81" t="s">
         <v>124</v>
       </c>
       <c r="H81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I81" t="s">
         <v>39</v>
       </c>
       <c r="J81" t="s">
+        <v>737</v>
+      </c>
+      <c r="K81" t="s">
         <v>738</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>739</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>740</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
         <v>741</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>742</v>
       </c>
       <c r="S81" s="2">
         <v>45224</v>
@@ -9084,55 +9075,55 @@
         <v>7489</v>
       </c>
       <c r="B82" t="s">
+        <v>742</v>
+      </c>
+      <c r="C82" t="s">
         <v>743</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>744</v>
-      </c>
-      <c r="D82" t="s">
-        <v>745</v>
       </c>
       <c r="E82">
         <v>2020</v>
       </c>
       <c r="F82" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G82" t="s">
         <v>123</v>
       </c>
       <c r="H82" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I82" t="s">
         <v>39</v>
       </c>
       <c r="J82" t="s">
+        <v>747</v>
+      </c>
+      <c r="K82" t="s">
         <v>748</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>749</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>750</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
         <v>751</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82" t="s">
-        <v>752</v>
       </c>
       <c r="S82" s="2">
         <v>45224</v>
@@ -9161,41 +9152,41 @@
         <v>7422</v>
       </c>
       <c r="B83" t="s">
+        <v>752</v>
+      </c>
+      <c r="C83" t="s">
         <v>753</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>754</v>
-      </c>
-      <c r="D83" t="s">
-        <v>755</v>
       </c>
       <c r="E83">
         <v>2016</v>
       </c>
       <c r="F83" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G83" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H83" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I83" t="s">
         <v>39</v>
       </c>
       <c r="J83" t="s">
+        <v>756</v>
+      </c>
+      <c r="K83" t="s">
         <v>757</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>758</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>759</v>
       </c>
-      <c r="M83" t="s">
-        <v>760</v>
-      </c>
       <c r="N83">
         <v>1</v>
       </c>
@@ -9209,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="S83" s="2">
         <v>45224</v>
@@ -9238,52 +9229,52 @@
         <v>10150</v>
       </c>
       <c r="B84" t="s">
+        <v>760</v>
+      </c>
+      <c r="C84" t="s">
         <v>761</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>762</v>
-      </c>
-      <c r="D84" t="s">
-        <v>763</v>
       </c>
       <c r="E84">
         <v>2018</v>
       </c>
       <c r="F84" t="s">
+        <v>558</v>
+      </c>
+      <c r="H84" t="s">
         <v>559</v>
-      </c>
-      <c r="H84" t="s">
-        <v>560</v>
       </c>
       <c r="I84" t="s">
         <v>39</v>
       </c>
       <c r="J84" t="s">
+        <v>763</v>
+      </c>
+      <c r="K84" t="s">
         <v>764</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>765</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>766</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
         <v>767</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84" t="s">
-        <v>768</v>
       </c>
       <c r="S84" s="2">
         <v>45224</v>
@@ -9315,13 +9306,13 @@
         <v>5365</v>
       </c>
       <c r="B85" t="s">
+        <v>768</v>
+      </c>
+      <c r="C85" t="s">
         <v>769</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>770</v>
-      </c>
-      <c r="D85" t="s">
-        <v>771</v>
       </c>
       <c r="E85">
         <v>1997</v>
@@ -9330,28 +9321,28 @@
         <v>113</v>
       </c>
       <c r="J85" t="s">
+        <v>771</v>
+      </c>
+      <c r="L85" t="s">
         <v>772</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>773</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
         <v>774</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="R85" t="s">
-        <v>775</v>
       </c>
       <c r="S85" s="2">
         <v>45229</v>
@@ -9386,52 +9377,52 @@
         <v>8488</v>
       </c>
       <c r="B86" t="s">
+        <v>775</v>
+      </c>
+      <c r="C86" t="s">
         <v>776</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>777</v>
-      </c>
-      <c r="D86" t="s">
-        <v>778</v>
       </c>
       <c r="E86">
         <v>2018</v>
       </c>
       <c r="F86" t="s">
+        <v>778</v>
+      </c>
+      <c r="H86" t="s">
         <v>779</v>
-      </c>
-      <c r="H86" t="s">
-        <v>780</v>
       </c>
       <c r="I86" t="s">
         <v>39</v>
       </c>
       <c r="J86" t="s">
+        <v>780</v>
+      </c>
+      <c r="K86" t="s">
         <v>781</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>782</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>783</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
         <v>784</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>785</v>
       </c>
       <c r="S86" s="2">
         <v>45224</v>
@@ -9460,46 +9451,46 @@
         <v>9000</v>
       </c>
       <c r="B87" t="s">
+        <v>785</v>
+      </c>
+      <c r="C87" t="s">
         <v>786</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>787</v>
-      </c>
-      <c r="D87" t="s">
-        <v>788</v>
       </c>
       <c r="E87">
         <v>2020</v>
       </c>
       <c r="I87" t="s">
+        <v>788</v>
+      </c>
+      <c r="J87" t="s">
         <v>789</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>790</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>791</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>792</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
         <v>793</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87" t="s">
-        <v>794</v>
       </c>
       <c r="S87" s="2">
         <v>45224</v>
@@ -9528,13 +9519,13 @@
         <v>2306</v>
       </c>
       <c r="B88" t="s">
+        <v>794</v>
+      </c>
+      <c r="C88" t="s">
         <v>795</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>796</v>
-      </c>
-      <c r="D88" t="s">
-        <v>797</v>
       </c>
       <c r="E88">
         <v>2018</v>
@@ -9543,34 +9534,34 @@
         <v>408</v>
       </c>
       <c r="H88" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I88" t="s">
         <v>39</v>
       </c>
       <c r="J88" t="s">
+        <v>798</v>
+      </c>
+      <c r="L88" t="s">
         <v>799</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>800</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
         <v>801</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>802</v>
       </c>
       <c r="S88" s="2">
         <v>45224</v>
@@ -9599,19 +9590,19 @@
         <v>9227</v>
       </c>
       <c r="B89" t="s">
+        <v>802</v>
+      </c>
+      <c r="C89" t="s">
         <v>803</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>804</v>
-      </c>
-      <c r="D89" t="s">
-        <v>805</v>
       </c>
       <c r="E89">
         <v>2004</v>
       </c>
       <c r="F89" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G89" t="s">
         <v>37</v>
@@ -9623,31 +9614,31 @@
         <v>39</v>
       </c>
       <c r="J89" t="s">
+        <v>806</v>
+      </c>
+      <c r="K89" t="s">
         <v>807</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>808</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>809</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
         <v>810</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89" t="s">
-        <v>811</v>
       </c>
       <c r="S89" s="2">
         <v>45224</v>
@@ -9676,55 +9667,55 @@
         <v>7669</v>
       </c>
       <c r="B90" t="s">
+        <v>811</v>
+      </c>
+      <c r="C90" t="s">
         <v>812</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>813</v>
-      </c>
-      <c r="D90" t="s">
-        <v>814</v>
       </c>
       <c r="E90">
         <v>2021</v>
       </c>
       <c r="F90" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G90" t="s">
         <v>173</v>
       </c>
       <c r="H90" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I90" t="s">
         <v>39</v>
       </c>
       <c r="J90" t="s">
+        <v>816</v>
+      </c>
+      <c r="K90" t="s">
         <v>817</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>818</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>819</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90" t="s">
         <v>820</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-      <c r="R90" t="s">
-        <v>821</v>
       </c>
       <c r="S90" s="2">
         <v>45224</v>
@@ -9753,49 +9744,49 @@
         <v>578</v>
       </c>
       <c r="B91" t="s">
+        <v>821</v>
+      </c>
+      <c r="C91" t="s">
         <v>822</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>823</v>
-      </c>
-      <c r="D91" t="s">
-        <v>824</v>
       </c>
       <c r="E91">
         <v>2021</v>
       </c>
       <c r="F91" t="s">
+        <v>824</v>
+      </c>
+      <c r="H91" t="s">
         <v>825</v>
-      </c>
-      <c r="H91" t="s">
-        <v>826</v>
       </c>
       <c r="I91" t="s">
         <v>39</v>
       </c>
       <c r="J91" t="s">
+        <v>826</v>
+      </c>
+      <c r="L91" t="s">
         <v>827</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>828</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
         <v>829</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>830</v>
       </c>
       <c r="S91" s="2">
         <v>45224</v>
@@ -9824,19 +9815,19 @@
         <v>780</v>
       </c>
       <c r="B92" t="s">
+        <v>830</v>
+      </c>
+      <c r="C92" t="s">
         <v>831</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>832</v>
-      </c>
-      <c r="D92" t="s">
-        <v>833</v>
       </c>
       <c r="E92">
         <v>2013</v>
       </c>
       <c r="F92" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H92" t="s">
         <v>72</v>
@@ -9845,14 +9836,14 @@
         <v>39</v>
       </c>
       <c r="J92" t="s">
+        <v>834</v>
+      </c>
+      <c r="L92" t="s">
         <v>835</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>836</v>
       </c>
-      <c r="M92" t="s">
-        <v>837</v>
-      </c>
       <c r="N92">
         <v>1</v>
       </c>
@@ -9866,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="S92" s="2">
         <v>45224</v>
@@ -9895,13 +9886,13 @@
         <v>8450</v>
       </c>
       <c r="B93" t="s">
+        <v>837</v>
+      </c>
+      <c r="C93" t="s">
         <v>838</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>839</v>
-      </c>
-      <c r="D93" t="s">
-        <v>840</v>
       </c>
       <c r="E93">
         <v>2017</v>
@@ -9910,28 +9901,28 @@
         <v>287</v>
       </c>
       <c r="J93" t="s">
+        <v>840</v>
+      </c>
+      <c r="L93" t="s">
         <v>841</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>842</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
         <v>843</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-      <c r="R93" t="s">
-        <v>844</v>
       </c>
       <c r="S93" s="2">
         <v>45224</v>
@@ -9946,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="X93" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Y93" t="s">
         <v>109</v>
@@ -9963,13 +9954,13 @@
         <v>9772</v>
       </c>
       <c r="B94" t="s">
+        <v>845</v>
+      </c>
+      <c r="C94" t="s">
         <v>846</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>847</v>
-      </c>
-      <c r="D94" t="s">
-        <v>848</v>
       </c>
       <c r="E94">
         <v>2003</v>
@@ -9981,20 +9972,20 @@
         <v>123</v>
       </c>
       <c r="H94" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I94" t="s">
         <v>39</v>
       </c>
       <c r="J94" t="s">
+        <v>849</v>
+      </c>
+      <c r="L94" t="s">
         <v>850</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>851</v>
       </c>
-      <c r="M94" t="s">
-        <v>852</v>
-      </c>
       <c r="N94">
         <v>1</v>
       </c>
@@ -10008,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="S94" s="2">
         <v>45224</v>
@@ -10037,19 +10028,19 @@
         <v>3860</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>853</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>855</v>
       </c>
       <c r="E95">
         <v>2023</v>
       </c>
       <c r="F95" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -10061,28 +10052,28 @@
         <v>39</v>
       </c>
       <c r="J95" t="s">
+        <v>856</v>
+      </c>
+      <c r="L95" t="s">
         <v>857</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>858</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
         <v>859</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95" t="s">
-        <v>860</v>
       </c>
       <c r="S95" s="2">
         <v>45229</v>
@@ -10114,19 +10105,19 @@
         <v>9271</v>
       </c>
       <c r="B96" t="s">
+        <v>860</v>
+      </c>
+      <c r="C96" t="s">
         <v>861</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>862</v>
-      </c>
-      <c r="D96" t="s">
-        <v>863</v>
       </c>
       <c r="E96">
         <v>2014</v>
       </c>
       <c r="F96" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -10138,25 +10129,25 @@
         <v>39</v>
       </c>
       <c r="J96" t="s">
+        <v>864</v>
+      </c>
+      <c r="M96" t="s">
         <v>865</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
         <v>866</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96" t="s">
-        <v>867</v>
       </c>
       <c r="S96" s="2">
         <v>45224</v>
@@ -10188,19 +10179,19 @@
         <v>7475</v>
       </c>
       <c r="B97" t="s">
+        <v>867</v>
+      </c>
+      <c r="C97" t="s">
         <v>868</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>869</v>
-      </c>
-      <c r="D97" t="s">
-        <v>870</v>
       </c>
       <c r="E97">
         <v>2023</v>
       </c>
       <c r="F97" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G97" t="s">
         <v>37</v>
@@ -10212,17 +10203,17 @@
         <v>39</v>
       </c>
       <c r="J97" t="s">
+        <v>871</v>
+      </c>
+      <c r="K97" t="s">
         <v>872</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>873</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>874</v>
       </c>
-      <c r="M97" t="s">
-        <v>875</v>
-      </c>
       <c r="N97">
         <v>1</v>
       </c>
@@ -10236,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="R97" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="S97" s="2">
         <v>45224</v>
@@ -10265,19 +10256,19 @@
         <v>8704</v>
       </c>
       <c r="B98" t="s">
+        <v>875</v>
+      </c>
+      <c r="C98" t="s">
         <v>876</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>877</v>
-      </c>
-      <c r="D98" t="s">
-        <v>878</v>
       </c>
       <c r="E98">
         <v>2022</v>
       </c>
       <c r="F98" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -10289,14 +10280,14 @@
         <v>39</v>
       </c>
       <c r="J98" t="s">
+        <v>879</v>
+      </c>
+      <c r="L98" t="s">
         <v>880</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>881</v>
       </c>
-      <c r="M98" t="s">
-        <v>882</v>
-      </c>
       <c r="N98">
         <v>1</v>
       </c>
@@ -10310,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="S98" s="2">
         <v>45224</v>
@@ -10342,52 +10333,52 @@
         <v>23</v>
       </c>
       <c r="B99" t="s">
+        <v>882</v>
+      </c>
+      <c r="C99" t="s">
         <v>883</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>884</v>
-      </c>
-      <c r="D99" t="s">
-        <v>885</v>
       </c>
       <c r="E99">
         <v>2021</v>
       </c>
       <c r="F99" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H99" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I99" t="s">
         <v>39</v>
       </c>
       <c r="J99" t="s">
+        <v>886</v>
+      </c>
+      <c r="K99" t="s">
         <v>887</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>888</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>889</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="s">
         <v>890</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99" t="s">
-        <v>891</v>
       </c>
       <c r="S99" s="2">
         <v>45224</v>
@@ -10416,52 +10407,52 @@
         <v>1626</v>
       </c>
       <c r="B100" t="s">
+        <v>891</v>
+      </c>
+      <c r="C100" t="s">
         <v>892</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>893</v>
-      </c>
-      <c r="D100" t="s">
-        <v>894</v>
       </c>
       <c r="E100">
         <v>2018</v>
       </c>
       <c r="F100" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G100" t="s">
         <v>123</v>
       </c>
       <c r="H100" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I100" t="s">
         <v>39</v>
       </c>
       <c r="J100" t="s">
+        <v>895</v>
+      </c>
+      <c r="L100" t="s">
         <v>896</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>897</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
         <v>898</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100" t="s">
-        <v>899</v>
       </c>
       <c r="S100" s="2">
         <v>45224</v>
@@ -10490,52 +10481,52 @@
         <v>1447</v>
       </c>
       <c r="B101" t="s">
+        <v>899</v>
+      </c>
+      <c r="C101" t="s">
         <v>900</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>901</v>
-      </c>
-      <c r="D101" t="s">
-        <v>902</v>
       </c>
       <c r="E101">
         <v>2020</v>
       </c>
       <c r="F101" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G101" t="s">
         <v>217</v>
       </c>
       <c r="H101" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I101" t="s">
         <v>39</v>
       </c>
       <c r="J101" t="s">
+        <v>904</v>
+      </c>
+      <c r="L101" t="s">
         <v>905</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>906</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101" t="s">
         <v>907</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101" t="s">
-        <v>908</v>
       </c>
       <c r="S101" s="2">
         <v>45224</v>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0AC0F9-5CCF-1248-9180-95EB3898B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FCD23C-4CC0-C740-A295-08B20FB9F81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-300" yWindow="-21100" windowWidth="29040" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="910">
   <si>
     <t>record_id</t>
   </si>
@@ -3001,8 +3001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AF47" sqref="AF47"/>
+    <sheetView tabSelected="1" topLeftCell="S58" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Z80" sqref="Z80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3484,15 +3484,15 @@
         <v>66</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="s">
         <v>46</v>
       </c>
+      <c r="Z6" t="s">
+        <v>109</v>
+      </c>
       <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
         <v>1</v>
       </c>
     </row>
@@ -7927,15 +7927,12 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="s">
         <v>46</v>
       </c>
       <c r="AG66">
-        <v>1</v>
-      </c>
-      <c r="AH66">
         <v>1</v>
       </c>
     </row>
@@ -8537,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="W74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="s">
         <v>46</v>
       </c>
+      <c r="Z74" t="s">
+        <v>109</v>
+      </c>
       <c r="AG74">
         <v>1</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.2">
@@ -8981,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y80" t="s">
         <v>46</v>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA330935-5AEE-D74F-83A6-279C2185751A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC823F-FF36-6448-95A9-45B7F5B480C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="914">
   <si>
     <t>record_id</t>
   </si>
@@ -2764,6 +2764,9 @@
   </si>
   <si>
     <t>full_random_check</t>
+  </si>
+  <si>
+    <t>effect_size_unclear</t>
   </si>
 </sst>
 </file>
@@ -3003,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X7" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView tabSelected="1" topLeftCell="W69" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8207,6 +8210,9 @@
       <c r="W66">
         <v>0</v>
       </c>
+      <c r="X66" t="s">
+        <v>273</v>
+      </c>
       <c r="Y66" t="s">
         <v>44</v>
       </c>
@@ -8841,6 +8847,9 @@
       <c r="W74">
         <v>0</v>
       </c>
+      <c r="X74" t="s">
+        <v>913</v>
+      </c>
       <c r="Y74" t="s">
         <v>44</v>
       </c>
@@ -9299,6 +9308,9 @@
       </c>
       <c r="W80">
         <v>0</v>
+      </c>
+      <c r="X80" t="s">
+        <v>273</v>
       </c>
       <c r="Y80" t="s">
         <v>44</v>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC823F-FF36-6448-95A9-45B7F5B480C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D45ED01-CBF2-064A-B8D5-F584262A5A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="914">
   <si>
     <t>record_id</t>
   </si>
@@ -3006,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W69" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="X80" sqref="X80"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="178" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3493,6 +3493,9 @@
       </c>
       <c r="W6">
         <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>127</v>
       </c>
       <c r="Y6" t="s">
         <v>44</v>
